--- a/biology/Zoologie/Dogue_de_Bordeaux/Dogue_de_Bordeaux.xlsx
+++ b/biology/Zoologie/Dogue_de_Bordeaux/Dogue_de_Bordeaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le dogue de Bordeaux est un chien du type molossoïde.
@@ -512,7 +524,9 @@
           <t>Origines</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ancêtres du dogue de Bordeaux seraient arrivés dans le sud de la Gaule à la fin de l'Antiquité (Ve siècle), avec des peuples cavaliers nomades originaires d’Asie, lors des grandes invasions. Il s'agissait probablement d'Alains, d'origine iranienne ou des Taïfales voire des Huns, originaires d'Asie centrale, qui utilisaient des chiens de guerre durant leurs campagnes militaires. Les Alains introduisirent notamment en Espagne une race de chiens robustes, l'Alano Español.
 Il aurait pris place dans le sud-ouest de la France et aurait été croisé avec de multiples races déjà présentes. Cette race de chien n’a vraiment été reconnue qu’en 1926 mais a failli totalement disparaître au XXe siècle à cause des deux guerres. Ce n'est que dans les années 70 que l'élevage de la race a été véritablement relancé grâce au travail du professeur français Raymond Triquet.
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Physique
-Ce molosse brachycéphale au poil fin, court et doux de couleur fauve (dont les nuances varient de l'isabelle à l'acajou) est souvent pourvu de taches blanches peu étendues sur le poitrail et de temps en temps aux pattes. 
+          <t>Physique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce molosse brachycéphale au poil fin, court et doux de couleur fauve (dont les nuances varient de l'isabelle à l'acajou) est souvent pourvu de taches blanches peu étendues sur le poitrail et de temps en temps aux pattes. 
 En période de mue, ce chien perd une grande partie de ses poils, ce qui oblige ses maîtres à le brosser avec soin.
 Le mâle mesure en moyenne soixante à soixante-huit centimètres (le standard précise qu'il existe une tolérance de 1cm en moins et 2 cm en plus) et pèse au moins cinquante kilos.
 La femelle, quant à elle, mesure de cinquante-huit à soixante-six centimètres (avec la même tolérance que pour les mâles) et pèse au moins quarante-cinq kilos.
@@ -556,9 +575,6 @@
 Le dogue de Bordeaux est un chien très musclé qui conserve pourtant un ensemble harmonieux. Sa tête est assez volumineuse, anguleuse, large et assez courte, avec une mâchoire forte et prognathe.
 Le dogue de Bordeaux est un chien qui possède les caractéristiques d'un athlète mais qui s'avère pourtant être d'une placidité naturelle.
 Ainsi, les activités sportives sont généralement limitées, à plus forte raison lors de sa croissance (jusqu'à 18 mois) au cours de laquelle il est très sensible d'un point de vue articulaire. On évitera alors les montées d'escalier et les efforts intenses.
-Caractère
-Le dogue de Bordeaux est réputé comme étant un excellent chien de garde et de défense, mais il est aussi de très bonne compagnie. Il s'avère être un animal doux et extrêmement attaché à ses maîtres. C’est un chien au tempérament égal et calme. Il est amical, attentif, sociable, attachant, curieux, très courageux et physiquement exigeant avec lui-même. Très attaché aux siens, il a l’habitude de toujours protéger sa famille et d’assurer une garde sans faille de la maison. C’est aussi un très bon compagnon de jeu pour les enfants. Il aboie rarement, sauf en cas de danger ou de nécessité.
-Si le dogue de Bordeaux connaît beaucoup d’expériences positives dans sa jeunesse, lui permettant de développer un tempérament équilibré, son comportement avec les autres animaux de compagnie sera parfait une fois devenu adulte. Cependant, c’est un animal généralement doux et protecteur. Au premier abord, les visiteurs sont souvent considérés avec suspicion de sa part, mais une fois que son maître a signifié son approbation, ils sont agréablement accueillis.
 </t>
         </is>
       </c>
@@ -584,10 +600,50 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractère</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le dogue de Bordeaux est réputé comme étant un excellent chien de garde et de défense, mais il est aussi de très bonne compagnie. Il s'avère être un animal doux et extrêmement attaché à ses maîtres. C’est un chien au tempérament égal et calme. Il est amical, attentif, sociable, attachant, curieux, très courageux et physiquement exigeant avec lui-même. Très attaché aux siens, il a l’habitude de toujours protéger sa famille et d’assurer une garde sans faille de la maison. C’est aussi un très bon compagnon de jeu pour les enfants. Il aboie rarement, sauf en cas de danger ou de nécessité.
+Si le dogue de Bordeaux connaît beaucoup d’expériences positives dans sa jeunesse, lui permettant de développer un tempérament équilibré, son comportement avec les autres animaux de compagnie sera parfait une fois devenu adulte. Cependant, c’est un animal généralement doux et protecteur. Au premier abord, les visiteurs sont souvent considérés avec suspicion de sa part, mais une fois que son maître a signifié son approbation, ils sont agréablement accueillis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dogue_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dogue_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Santé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette race de chien nécessite beaucoup d’attention de la part de ses maîtres. Toutefois son besoin de dépense physique n’est que moyen. Il ne se contentera que de deux promenades quotidiennes associées à quelques parties de jeux hebdomadaires, durant lesquelles il pourra courir et se dépenser en toute liberté.
 Un dogue bien entretenu peut avoir une durée de vie allant de huit à dix ans. Pour que le chien développe des attaches étroites avec son maître, il est important de lui imposer une éducation cohérente, juste et sereine. Ainsi cherchera-t-il toujours à plaire à son maître. Avec cet animal, il ne faut pas hésiter à en rajouter pour exprimer sa satisfaction ou son mécontentement. Il lui faut un maître ayant naturellement de l’ascendant sur lui, et qui sache lui parler de façon encourageante. 
@@ -603,37 +659,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dogue_de_Bordeaux</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dogue_de_Bordeaux</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Fiction</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On retrouve un dogue de Bordeaux appelé Hooch dans la comédie policière Turner et Hooch de 1989 avec Tom Hanks, ainsi que dans la série policière Tequila et Bonetti (1992). Un dogue de Bordeaux est également présent dans le film Payback (1999) avec Mel Gibson.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -655,10 +680,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Fiction</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On retrouve un dogue de Bordeaux appelé Hooch dans la comédie policière Turner et Hooch de 1989 avec Tom Hanks, ainsi que dans la série policière Tequila et Bonetti (1992). Un dogue de Bordeaux est également présent dans le film Payback (1999) avec Mel Gibson.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dogue_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dogue_de_Bordeaux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publicité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Un dogue de Bordeaux fut utilisé pour une publicité pour les bonbons Mentos dans les années 1990.
 </t>
